--- a/transimp/BOM_REV_A.xlsx
+++ b/transimp/BOM_REV_A.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">U2</t>
   </si>
   <si>
-    <t xml:space="preserve">QFN-44_EP_7.0x7.0x0.5P</t>
+    <t xml:space="preserve">TQFP-32_7.0x7.0x0.8P</t>
   </si>
   <si>
     <t xml:space="preserve">C14877</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.1uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C7</t>
+    <t xml:space="preserve">C1, C2, C3, C4, C7, C10, C11,C12, C13</t>
   </si>
   <si>
     <t xml:space="preserve">0402</t>
@@ -107,10 +107,19 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
+    <t xml:space="preserve">R1, R7, R8</t>
   </si>
   <si>
     <t xml:space="preserve">C25744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R5, R6, R9, R10, R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25741</t>
   </si>
   <si>
     <t xml:space="preserve">500R</t>
@@ -370,7 +379,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -401,7 +410,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -507,17 +516,25 @@
         <v>22</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
@@ -549,7 +566,12 @@
       <c r="C13" s="12"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
